--- a/memoria/push_out/marlpush_out.xlsx
+++ b/memoria/push_out/marlpush_out.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\PycharmProjects\MT-MARL\memoria\push_out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0772790B-5E36-49B3-A902-751D4F826830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DAECCA-A15A-4142-B2BC-647D228DD388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="28155" windowHeight="14490" activeTab="1" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
   </bookViews>
@@ -289,10 +289,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Hoja1!$C$3:$C$22</c:f>
+                <c:f>Hoja1!$C$3:$C$12</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="20"/>
+                  <c:ptCount val="10"/>
                   <c:pt idx="0">
                     <c:v>0.17860571099491751</c:v>
                   </c:pt>
@@ -328,10 +328,10 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Hoja1!$C$3:$C$22</c:f>
+                <c:f>Hoja1!$C$3:$C$12</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="20"/>
+                  <c:ptCount val="10"/>
                   <c:pt idx="0">
                     <c:v>0.17860571099491751</c:v>
                   </c:pt>
@@ -419,10 +419,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$3:$B$22</c:f>
+              <c:f>Hoja1!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>30.81</c:v>
                 </c:pt>
@@ -496,10 +496,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Hoja1!$J$3:$J$22</c:f>
+                <c:f>Hoja1!$J$3:$J$12</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="20"/>
+                  <c:ptCount val="10"/>
                   <c:pt idx="0">
                     <c:v>23.327751177513871</c:v>
                   </c:pt>
@@ -535,10 +535,10 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Hoja1!$J$3:$J$22</c:f>
+                <c:f>Hoja1!$J$3:$J$12</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="20"/>
+                  <c:ptCount val="10"/>
                   <c:pt idx="0">
                     <c:v>23.327751177513871</c:v>
                   </c:pt>
@@ -626,10 +626,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$I$3:$I$22</c:f>
+              <c:f>Hoja1!$I$3:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>91.655000000000001</c:v>
                 </c:pt>
@@ -739,10 +739,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$F$3:$F$22</c:f>
+              <c:f>Hoja1!$F$3:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>30.2</c:v>
                 </c:pt>
@@ -802,6 +802,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -844,6 +902,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -1548,6 +1607,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2088,6 +2205,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2442,10 +2617,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Hoja1!$E$3:$E$22</c:f>
+                <c:f>Hoja1!$E$3:$E$12</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="20"/>
+                  <c:ptCount val="10"/>
                   <c:pt idx="0">
                     <c:v>0.39796356617157802</c:v>
                   </c:pt>
@@ -2481,10 +2656,10 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Hoja1!$E$3:$E$22</c:f>
+                <c:f>Hoja1!$E$3:$E$12</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="20"/>
+                  <c:ptCount val="10"/>
                   <c:pt idx="0">
                     <c:v>0.39796356617157802</c:v>
                   </c:pt>
@@ -2534,7 +2709,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$3:$A$22</c:f>
+              <c:f>Hoja1!$A$3:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2572,10 +2747,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$3:$D$22</c:f>
+              <c:f>Hoja1!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>31.324999999999999</c:v>
                 </c:pt>
@@ -2742,7 +2917,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$3:$A$22</c:f>
+              <c:f>Hoja1!$A$3:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2780,10 +2955,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$K$3:$K$22</c:f>
+              <c:f>Hoja1!$K$3:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>92.655000000000001</c:v>
                 </c:pt>
@@ -2855,7 +3030,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$3:$A$22</c:f>
+              <c:f>Hoja1!$A$3:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2893,10 +3068,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$M$3:$M$22</c:f>
+              <c:f>Hoja1!$M$3:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>30.2</c:v>
                 </c:pt>
@@ -2956,6 +3131,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2998,6 +3231,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -3399,7 +3633,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$3:$A$22</c:f>
+              <c:f>Hoja1!$A$3:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3437,10 +3671,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$27:$B$46</c:f>
+              <c:f>Hoja1!$B$27:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>48.15</c:v>
                 </c:pt>
@@ -3606,7 +3840,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$3:$A$22</c:f>
+              <c:f>Hoja1!$A$3:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3644,10 +3878,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$27:$G$46</c:f>
+              <c:f>Hoja1!$G$27:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>335.15</c:v>
                 </c:pt>
@@ -3707,6 +3941,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3749,12 +4041,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="151747327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4140,12 +4434,9 @@
             </c:minus>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -4192,10 +4483,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$76:$B$95</c:f>
+              <c:f>Hoja1!$B$76:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4399,10 +4690,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$76:$G$95</c:f>
+              <c:f>Hoja1!$G$76:$G$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4462,6 +4753,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Tramo de agente</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4938,10 +5284,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$51:$B$70</c:f>
+              <c:f>Hoja1!$B$51:$B$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>48.15</c:v>
                 </c:pt>
@@ -5145,10 +5491,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$51:$G$70</c:f>
+              <c:f>Hoja1!$G$51:$G$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>335.15</c:v>
                 </c:pt>
@@ -5208,6 +5554,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5250,12 +5654,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="151747327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5953,6 +6359,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6694,6 +7158,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6736,12 +7258,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="151747327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7234,6 +7758,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7975,6 +8557,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8023,6 +8663,7 @@
         <c:axId val="151747327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -14522,15 +15163,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>456736</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>91966</xdr:rowOff>
+      <xdr:colOff>483950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>105573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>389501</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>159202</xdr:rowOff>
+      <xdr:colOff>416715</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>172809</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14545,7 +15186,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19165150" y="3139966"/>
+          <a:off x="19193771" y="3344073"/>
           <a:ext cx="1456765" cy="638736"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14632,15 +15273,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>756957</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>8564</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>106456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>644899</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:colOff>658506</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>173692</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14656,7 +15297,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11082057" y="2773456"/>
+          <a:off x="14146385" y="3344956"/>
           <a:ext cx="1411942" cy="638736"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15547,8 +16188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B691F5-4794-4A6A-A54B-EFD8B65B6485}">
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q63" sqref="Q63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16828,8 +17469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE69219C-C24C-4E8C-9B7B-BB296391C0CC}">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17577,8 +18218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A1C8CE-86D9-46FD-9EA8-9C71FCAAE2FE}">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/memoria/push_out/marlpush_out.xlsx
+++ b/memoria/push_out/marlpush_out.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\PycharmProjects\MT-MARL\memoria\push_out\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\MT-MARL\memoria\push_out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DAECCA-A15A-4142-B2BC-647D228DD388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB51D6A7-1216-4523-BCCB-CC1FB379AB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="28155" windowHeight="14490" activeTab="1" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
+    <workbookView xWindow="-20610" yWindow="4860" windowWidth="20730" windowHeight="10785" activeTab="2" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -110,10 +110,10 @@
     <t>rate_pred</t>
   </si>
   <si>
-    <t>MARLVanila</t>
+    <t>CR-MAPF</t>
   </si>
   <si>
-    <t>MARLPushOut</t>
+    <t>CR-MAPF-push_out</t>
   </si>
 </sst>
 </file>
@@ -207,15 +207,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-CL" baseline="0"/>
-              <a:t> sum of costs </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CL"/>
-              <a:t>MARL</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CL" baseline="0"/>
-              <a:t>/Baseline (40 runs)</a:t>
+              <a:t> sum of costs (40 runs)</a:t>
             </a:r>
             <a:endParaRPr lang="es-CL"/>
           </a:p>
@@ -265,7 +257,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MARLVanila</c:v>
+                  <c:v>CR-MAPF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -472,7 +464,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MARLPushOut</c:v>
+                  <c:v>CR-MAPF-push_out</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -643,7 +635,7 @@
                   <c:v>88.408749999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.405999999999992</c:v>
+                  <c:v>60.405999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>53.75333333333333</c:v>
@@ -2544,7 +2536,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-CL"/>
-              <a:t>MARL/Baseline (40 runs)</a:t>
+              <a:t>(40 runs)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2593,7 +2585,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MARLVanila</c:v>
+                  <c:v>CR-MAPF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2800,7 +2792,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MARLPushOut</c:v>
+                  <c:v>CR-MAPF-push_out</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3517,7 +3509,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MARLVanila</c:v>
+                  <c:v>CR-MAPF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3724,7 +3716,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MARLPushOut</c:v>
+                  <c:v>CR-MAPF-push_out</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4332,7 +4324,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MARLVanila</c:v>
+                  <c:v>CR-MAPF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4536,7 +4528,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MARLPushOut</c:v>
+                  <c:v>CR-MAPF-push_out</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5130,7 +5122,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MARLVanila</c:v>
+                  <c:v>CR-MAPF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5337,7 +5329,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MARLPushOut</c:v>
+                  <c:v>CR-MAPF-push_out</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16188,8 +16180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B691F5-4794-4A6A-A54B-EFD8B65B6485}">
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q63" sqref="Q63"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16413,7 +16405,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>60.405999999999992</v>
+        <v>60.405999999999999</v>
       </c>
       <c r="J7">
         <v>7.0081926343387559</v>
@@ -17469,7 +17461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE69219C-C24C-4E8C-9B7B-BB296391C0CC}">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -18218,7 +18210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A1C8CE-86D9-46FD-9EA8-9C71FCAAE2FE}">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>

--- a/memoria/push_out/marlpush_out.xlsx
+++ b/memoria/push_out/marlpush_out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\MT-MARL\memoria\push_out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB51D6A7-1216-4523-BCCB-CC1FB379AB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283A4025-51F9-4126-A46E-513BA274CBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4860" windowWidth="20730" windowHeight="10785" activeTab="2" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="28">
   <si>
     <t>valores_ideales</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>CR-MAPF-push_out</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>%STDEV</t>
   </si>
 </sst>
 </file>
@@ -1131,6 +1137,806 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CL" baseline="0"/>
+              <a:t>push_out vs total de movimientos (40 runs)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MARLPushOut!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>push_out</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>MARLPushOut!$D$2:$D$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.70710678118654757</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.1944463024892404</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>22.12198117895527</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>47.020208421486174</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>39.607359779691805</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>34.205862445508167</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>176.9199714052975</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>182.66089500520522</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>187.74012999424596</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>207.52088402783048</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>MARLPushOut!$D$2:$D$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.70710678118654757</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.1944463024892404</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>22.12198117895527</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>47.020208421486174</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>39.607359779691805</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>34.205862445508167</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>176.9199714052975</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>182.66089500520522</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>187.74012999424596</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>207.52088402783048</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MARLPushOut!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114.97499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>613.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>786.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>909.55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1023.175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA23-4692-833F-E0D185B58B0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MARLPushOut!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>MARLPushOut!$I$2:$I$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.9683391410930611</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.5991452610943337</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>63.56775105632552</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>136.92100473799329</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>122.72859362148533</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>95.072320650366763</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>671.7026127684785</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>682.67631516118149</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>744.12653321588721</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>950.74202599863941</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>MARLPushOut!$I$2:$I$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.9683391410930611</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.5991452610943337</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>63.56775105632552</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>136.92100473799329</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>122.72859362148533</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>95.072320650366763</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>671.7026127684785</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>682.67631516118149</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>744.12653321588721</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>950.74202599863941</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MARLPushOut!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>308.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>482.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>896.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1223.6500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1595.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1597.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4013.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5263.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6056.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7035.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EA23-4692-833F-E0D185B58B0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="151745663"/>
+        <c:axId val="151747327"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="151745663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151747327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151747327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" baseline="0"/>
+                  <a:t>Cantidad de agentes en destino</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151745663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" baseline="0"/>
               <a:t>predicciones (40 runs)</a:t>
             </a:r>
             <a:endParaRPr lang="es-CL"/>
@@ -1895,7 +2701,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -5073,7 +5879,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CL"/>
-              <a:t>Avg tiempo de la run (40 runs)</a:t>
+              <a:t>Avg tiempo de la RUN (40 runs)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5696,7 +6502,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="es-CL" baseline="0"/>
-                  <a:t> en tiempo</a:t>
+                  <a:t> en ventanas de tiempo</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5849,6 +6655,810 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL"/>
+              <a:t>%</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CL" baseline="0"/>
+              <a:t> agentes en destino (40 runs)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CR-MAPF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Hoja1!$B$88:$B$97</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.0401411564832808</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>23.627896603720323</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>12.309537829386263</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10.800542186258678</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.7068656608700037</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>9.3864258514434091</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.5870558244496555</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9.7511536975730291</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>13.613578947819448</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Hoja1!$B$88:$B$97</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.0401411564832808</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>23.627896603720323</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>12.309537829386263</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10.800542186258678</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.7068656608700037</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>9.3864258514434091</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.5870558244496555</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9.7511536975730291</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>13.613578947819448</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$76:$E$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.279411764705884</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.54651162790698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.264150943396231</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.793478260869577</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.945652173913047</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.41379310344827</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.07352941176471</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7152-425A-9CE1-48D9667C76EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CR-MAPF-push_out</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Hoja1!$I$76:$I$95</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Hoja1!$I$76:$I$95</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$J$76:$J$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7152-425A-9CE1-48D9667C76EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="151745663"/>
+        <c:axId val="151747327"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="151745663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Tramo de agente</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151747327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151747327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" baseline="0"/>
+                  <a:t>% de agentes en destino</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151745663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -6647,7 +8257,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -7448,7 +9058,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -8046,806 +9656,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CL" baseline="0"/>
-              <a:t>push_out vs total de movimientos (40 runs)</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CL"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>MARLPushOut!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>push_out</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>MARLPushOut!$D$2:$D$11</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.70710678118654757</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>3.1944463024892404</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>22.12198117895527</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>47.020208421486174</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>39.607359779691805</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>34.205862445508167</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>176.9199714052975</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>182.66089500520522</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>187.74012999424596</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>207.52088402783048</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>MARLPushOut!$D$2:$D$11</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>0.70710678118654757</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>3.1944463024892404</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>22.12198117895527</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>47.020208421486174</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>39.607359779691805</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>34.205862445508167</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>176.9199714052975</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>182.66089500520522</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>187.74012999424596</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>207.52088402783048</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$A$3:$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MARLPushOut!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.7250000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45.05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>106.65</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>114.97499999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>75.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>613.125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>786.35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>909.55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1023.175</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EA23-4692-833F-E0D185B58B0C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>MARLPushOut!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>MARLPushOut!$I$2:$I$11</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>1.9683391410930611</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>9.5991452610943337</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>63.56775105632552</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>136.92100473799329</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>122.72859362148533</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>95.072320650366763</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>671.7026127684785</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>682.67631516118149</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>744.12653321588721</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>950.74202599863941</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>MARLPushOut!$I$2:$I$11</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>1.9683391410930611</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>9.5991452610943337</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>63.56775105632552</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>136.92100473799329</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>122.72859362148533</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>95.072320650366763</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>671.7026127684785</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>682.67631516118149</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>744.12653321588721</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>950.74202599863941</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$A$3:$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MARLPushOut!$G$2:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>308.35000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>482.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>896.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1223.6500000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1595.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1597.15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4013.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5263.35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6056.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7035.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EA23-4692-833F-E0D185B58B0C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="151745663"/>
-        <c:axId val="151747327"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="151745663"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Tramo de agentes</a:t>
-                </a:r>
-                <a:endParaRPr lang="es-CL"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="151747327"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="151747327"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CL" baseline="0"/>
-                  <a:t>Cantidad de agentes en destino</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="151745663"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8927,6 +9737,46 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10834,6 +11684,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -15078,15 +16444,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>358588</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4802</xdr:colOff>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>358588</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>4802</xdr:colOff>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15502,142 +16868,40 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>365873</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>84043</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>421822</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>298638</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>124384</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>421822</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>144235</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectángulo 12">
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Gráfico 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637A6DF5-80A1-4238-B587-2113EFA1799B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC528E4B-3D06-4D34-8EC4-68F3853C5D5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7642973" y="16848043"/>
-          <a:ext cx="1456765" cy="802341"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>Aquí el promedio de agentes que llegarón</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100" b="0" cap="none" spc="0" baseline="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t> (</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>difieren poquisimo)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100" b="0" cap="none" spc="0" baseline="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-CL" sz="1100" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-CL" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16178,10 +17442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B691F5-4794-4A6A-A54B-EFD8B65B6485}">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q55" sqref="Q55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17170,7 +18434,7 @@
         <v>82.545651704887561</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>6</v>
       </c>
@@ -17180,6 +18444,9 @@
       <c r="D75" t="s">
         <v>5</v>
       </c>
+      <c r="E75" t="s">
+        <v>26</v>
+      </c>
       <c r="G75" t="s">
         <v>6</v>
       </c>
@@ -17189,8 +18456,11 @@
       <c r="I75" t="s">
         <v>5</v>
       </c>
+      <c r="J75" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -17203,6 +18473,10 @@
       <c r="D76">
         <v>0</v>
       </c>
+      <c r="E76">
+        <f>B76*100/C76</f>
+        <v>100</v>
+      </c>
       <c r="F76" t="s">
         <v>7</v>
       </c>
@@ -17215,8 +18489,12 @@
       <c r="I76">
         <v>0</v>
       </c>
+      <c r="J76">
+        <f>G76*100/H76</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -17229,6 +18507,10 @@
       <c r="D77">
         <v>1.192927878405448</v>
       </c>
+      <c r="E77">
+        <f t="shared" ref="E77:E85" si="0">B77*100/C77</f>
+        <v>98.75</v>
+      </c>
       <c r="F77" t="s">
         <v>8</v>
       </c>
@@ -17241,8 +18523,12 @@
       <c r="I77">
         <v>0</v>
       </c>
+      <c r="J77">
+        <f t="shared" ref="J77:J85" si="1">G77*100/H77</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -17255,6 +18541,10 @@
       <c r="D78">
         <v>4.5188352254615118</v>
       </c>
+      <c r="E78">
+        <f t="shared" si="0"/>
+        <v>63.75</v>
+      </c>
       <c r="F78" t="s">
         <v>9</v>
       </c>
@@ -17267,8 +18557,12 @@
       <c r="I78">
         <v>0</v>
       </c>
+      <c r="J78">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -17281,6 +18575,10 @@
       <c r="D79">
         <v>3.2343310646712404</v>
       </c>
+      <c r="E79">
+        <f t="shared" si="0"/>
+        <v>77.279411764705884</v>
+      </c>
       <c r="F79" t="s">
         <v>10</v>
       </c>
@@ -17293,8 +18591,12 @@
       <c r="I79">
         <v>0</v>
       </c>
+      <c r="J79">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -17307,6 +18609,10 @@
       <c r="D80">
         <v>3.6478831234088687</v>
       </c>
+      <c r="E80">
+        <f t="shared" si="0"/>
+        <v>78.54651162790698</v>
+      </c>
       <c r="F80" t="s">
         <v>1</v>
       </c>
@@ -17319,8 +18625,12 @@
       <c r="I80">
         <v>0</v>
       </c>
+      <c r="J80">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -17333,6 +18643,10 @@
       <c r="D81">
         <v>3.5644253681523765</v>
       </c>
+      <c r="E81">
+        <f t="shared" si="0"/>
+        <v>87.264150943396231</v>
+      </c>
       <c r="F81" t="s">
         <v>11</v>
       </c>
@@ -17345,8 +18659,12 @@
       <c r="I81">
         <v>0</v>
       </c>
+      <c r="J81">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -17359,6 +18677,10 @@
       <c r="D82">
         <v>3.3157549320223842</v>
       </c>
+      <c r="E82">
+        <f t="shared" si="0"/>
+        <v>76.793478260869577</v>
+      </c>
       <c r="F82" t="s">
         <v>12</v>
       </c>
@@ -17371,8 +18693,12 @@
       <c r="I82">
         <v>0</v>
       </c>
+      <c r="J82">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -17385,6 +18711,10 @@
       <c r="D83">
         <v>2.9646420634037032</v>
       </c>
+      <c r="E83">
+        <f t="shared" si="0"/>
+        <v>84.945652173913047</v>
+      </c>
       <c r="F83" t="s">
         <v>13</v>
       </c>
@@ -17397,8 +18727,12 @@
       <c r="I83">
         <v>0</v>
       </c>
+      <c r="J83">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -17411,6 +18745,10 @@
       <c r="D84">
         <v>4.3782680102102898</v>
       </c>
+      <c r="E84">
+        <f t="shared" si="0"/>
+        <v>77.41379310344827</v>
+      </c>
       <c r="F84" t="s">
         <v>14</v>
       </c>
@@ -17423,8 +18761,12 @@
       <c r="I84">
         <v>0</v>
       </c>
+      <c r="J84">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -17437,6 +18779,10 @@
       <c r="D85">
         <v>6.4868703686359677</v>
       </c>
+      <c r="E85">
+        <f t="shared" si="0"/>
+        <v>70.07352941176471</v>
+      </c>
       <c r="F85" t="s">
         <v>2</v>
       </c>
@@ -17448,6 +18794,75 @@
       </c>
       <c r="I85">
         <v>0</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <f>(D76/B76)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <f t="shared" ref="B89:B97" si="2">(D77/B77)*100</f>
+        <v>6.0401411564832808</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <f t="shared" si="2"/>
+        <v>23.627896603720323</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <f t="shared" si="2"/>
+        <v>12.309537829386263</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <f t="shared" si="2"/>
+        <v>10.800542186258678</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <f t="shared" si="2"/>
+        <v>7.7068656608700037</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <f t="shared" si="2"/>
+        <v>9.3864258514434091</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <f t="shared" si="2"/>
+        <v>7.5870558244496555</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <f t="shared" si="2"/>
+        <v>9.7511536975730291</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <f t="shared" si="2"/>
+        <v>13.613578947819448</v>
       </c>
     </row>
   </sheetData>
@@ -18210,7 +19625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A1C8CE-86D9-46FD-9EA8-9C71FCAAE2FE}">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
